--- a/Versuch7/datasets/sugar-corr.xlsx
+++ b/Versuch7/datasets/sugar-corr.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\004_UIBK\Grundpraktikum_1\Experimente\006_Polarisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch7\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEA59B13-D585-452B-B232-35A92C2A8C80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
     <sheet name="Concentration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,14 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
@@ -684,14 +685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" customWidth="1"/>
@@ -851,7 +852,7 @@
         <v>238.51441747948382</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H7" si="6">SQRT((G4/G3*H3)^2+(G3/C4*D3)^2+(G3/C4*B4)^2+(G4/C4*D4)^2)</f>
+        <f t="shared" ref="H4:H6" si="6">SQRT((G4/G3*H3)^2+(G3/C4*D3)^2+(G3/C4*B4)^2+(G4/C4*D4)^2)</f>
         <v>6.9432747992860966</v>
       </c>
       <c r="I4" s="1">
